--- a/Applications/RecruitmentRequest.xlsx
+++ b/Applications/RecruitmentRequest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Case ID</t>
   </si>
@@ -35,24 +35,6 @@
   </si>
   <si>
     <t>JobDescription</t>
-  </si>
-  <si>
-    <t>Full time</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>Part time</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Financial</t>
   </si>
 </sst>
 </file>
@@ -79,12 +61,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -97,16 +85,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -123,10 +111,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -146,6 +134,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -345,17 +334,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -383,10 +372,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -634,12 +623,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -926,7 +915,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -954,10 +943,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1251,13 +1240,9 @@
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" t="s" s="2">
-        <v>8</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" t="s" s="2">
-        <v>9</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1265,13 +1250,9 @@
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="2">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" t="s" s="2">
-        <v>11</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1281,9 +1262,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1293,9 +1272,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1352,6 +1329,14 @@
       <c r="H10" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>",Full time,Part time"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>",Administration,Services,Production,Financial"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
